--- a/방명록/방명록 테이블명세(2021-05-18).xlsx
+++ b/방명록/방명록 테이블명세(2021-05-18).xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="방명록" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -186,10 +187,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>go_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MySQL형식</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -219,6 +216,18 @@
   </si>
   <si>
     <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gb_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gb_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gb_content</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -935,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D6" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1661,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>11</v>
@@ -1696,10 +1705,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>18</v>
@@ -1723,10 +1732,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1748,10 +1757,10 @@
         <v>36</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1773,10 +1782,10 @@
         <v>37</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1798,10 +1807,10 @@
         <v>38</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1823,10 +1832,10 @@
         <v>39</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1845,13 +1854,13 @@
         <v>33</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -2011,4 +2020,77 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>